--- a/DZ_2.xlsx
+++ b/DZ_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mytraining\Финансовая математика\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23FF25D3-75FC-40F3-8662-90A02C19E7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCA1801-371C-435C-A83F-290CCDCEF181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{336A1D96-6021-498A-8190-060B89987D29}"/>
   </bookViews>
@@ -122,7 +122,7 @@
     <t>Ликвидность проекта Б</t>
   </si>
   <si>
-    <t>Вывод: Ликвидно проекта Б выше.</t>
+    <t>Вывод: Ликвидность проекта Б выше.</t>
   </si>
 </sst>
 </file>
@@ -243,32 +243,30 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -276,6 +274,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -287,13 +288,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD625A8-BA29-4A17-9000-63DFC94FF4C6}">
   <dimension ref="A1:T81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81:F81"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,113 +624,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7">
+      <c r="C10" s="25"/>
+      <c r="D10" s="3">
         <v>0</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="3">
         <v>2</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="3">
         <v>3</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="3">
         <v>4</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4">
+      <c r="C11" s="16"/>
+      <c r="D11" s="2">
         <v>-1200</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>100</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>200</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="1">
         <v>300</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="1">
         <v>400</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="1">
         <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="9">
+      <c r="C13" s="14"/>
+      <c r="D13" s="4">
         <v>0.15</v>
       </c>
       <c r="E13" t="s">
@@ -741,607 +741,607 @@
       <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="6">
         <f>D11+NPV(D13/4,E11:I11)</f>
         <v>111.98857701149109</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7">
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="3">
         <v>0</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="3">
         <v>1</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="3">
         <v>2</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="3">
         <v>3</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="3">
         <v>4</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="3">
         <v>5</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="4">
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="2">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="1">
         <v>100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="1">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="1">
         <v>300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="1">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="1">
         <v>500</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L26" s="7">
         <v>600</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="14">
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="8">
         <v>0.2</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="8">
         <v>0.2</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="8">
         <v>0.15</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="8">
         <v>0.15</v>
       </c>
-      <c r="K27" s="14">
+      <c r="K27" s="8">
         <v>0.1</v>
       </c>
-      <c r="L27" s="14">
+      <c r="L27" s="8">
         <v>0.1</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="3">
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="1">
         <v>1</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="1">
         <f>F28/(1+G27)</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="1">
         <f t="shared" ref="H28:L28" si="0">G28/(1+H27)</f>
         <v>0.69444444444444453</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="1">
         <f t="shared" si="0"/>
         <v>0.60386473429951704</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="1">
         <f t="shared" si="0"/>
         <v>0.52509976895610178</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="1">
         <f t="shared" si="0"/>
         <v>0.47736342632372886</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28" s="1">
         <f t="shared" si="0"/>
         <v>0.43396675120338984</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="3">
-        <f>F26/(1+F27)^(F25)</f>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="1">
+        <f t="shared" ref="F29:K29" si="1">F26*F28</f>
         <v>-1500</v>
       </c>
-      <c r="G29" s="3">
-        <f t="shared" ref="G29:L29" si="1">G26/(1+G27)^(G25)</f>
+      <c r="G29" s="1">
+        <f t="shared" si="1"/>
         <v>83.333333333333343</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="1">
         <f t="shared" si="1"/>
-        <v>138.88888888888889</v>
-      </c>
-      <c r="I29" s="3">
+        <v>138.88888888888891</v>
+      </c>
+      <c r="I29" s="1">
         <f t="shared" si="1"/>
-        <v>197.25486972959652</v>
-      </c>
-      <c r="J29" s="3">
+        <v>181.15942028985512</v>
+      </c>
+      <c r="J29" s="1">
         <f t="shared" si="1"/>
-        <v>228.70129823721334</v>
-      </c>
-      <c r="K29" s="3">
+        <v>210.03990758244072</v>
+      </c>
+      <c r="K29" s="1">
         <f t="shared" si="1"/>
-        <v>310.46066152957746</v>
-      </c>
-      <c r="L29" s="3">
-        <f t="shared" si="1"/>
-        <v>338.68435803226629</v>
+        <v>238.68171316186442</v>
+      </c>
+      <c r="L29" s="1">
+        <f>L26*L28</f>
+        <v>260.3800507220339</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="21">
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="9">
         <f>SUM(F29:L29)</f>
-        <v>-202.67659024912422</v>
+        <v>-387.51668602158378</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="7">
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="3">
         <v>0</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="3">
         <v>1</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="3">
         <v>2</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="3">
         <v>3</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="3">
         <v>4</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="3">
         <v>5</v>
       </c>
-      <c r="L35" s="7">
+      <c r="L35" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="4">
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="2">
         <v>-1500</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="1">
         <v>100</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="1">
         <v>200</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="1">
         <v>300</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="1">
         <v>400</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="1">
         <v>500</v>
       </c>
-      <c r="L36" s="13">
+      <c r="L36" s="7">
         <v>600</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="14">
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="8">
         <v>0.2</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="8">
         <v>0.2</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I37" s="8">
         <v>0.15</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J37" s="8">
         <v>0.15</v>
       </c>
-      <c r="K37" s="14">
+      <c r="K37" s="8">
         <v>0.1</v>
       </c>
-      <c r="L37" s="14">
+      <c r="L37" s="8">
         <v>0.1</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="3">
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="1">
         <v>1</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="1">
         <f>F38/(1+G37)</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="1">
         <f t="shared" ref="H38" si="2">G38/(1+H37)</f>
         <v>0.69444444444444453</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="1">
         <f t="shared" ref="I38" si="3">H38/(1+I37)</f>
         <v>0.60386473429951704</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="1">
         <f t="shared" ref="J38" si="4">I38/(1+J37)</f>
         <v>0.52509976895610178</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="1">
         <f t="shared" ref="K38" si="5">J38/(1+K37)</f>
         <v>0.47736342632372886</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="1">
         <f t="shared" ref="L38" si="6">K38/(1+L37)</f>
         <v>0.43396675120338984</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="3">
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="1">
         <f>F36/(1+F37)^(F35)</f>
         <v>-1500</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="1">
         <f t="shared" ref="G39:L39" si="7">G36/(1+G37)^(G35)</f>
         <v>83.333333333333343</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="1">
         <f t="shared" si="7"/>
         <v>138.88888888888889</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="1">
         <f t="shared" si="7"/>
         <v>197.25486972959652</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="1">
         <f t="shared" si="7"/>
         <v>228.70129823721334</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="1">
         <f t="shared" si="7"/>
         <v>310.46066152957746</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39" s="1">
         <f t="shared" si="7"/>
         <v>338.68435803226629</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="3">
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="1">
         <f>SUM(F39:L39)</f>
         <v>-202.67659024912422</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="23">
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="10">
         <f>IRR(F36:L36)</f>
         <v>8.2523831241376966E-2</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="3">
         <v>0</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="3">
         <v>1</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="3">
         <v>2</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="3">
         <v>3</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="3">
         <v>4</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="1">
         <v>-1000</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="1">
         <v>100</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="1">
         <v>250</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="1">
         <v>450</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="1">
         <v>500</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I51" s="1">
         <v>550</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="1">
         <v>-1000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="1">
         <v>200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="1">
         <v>300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="1">
         <v>400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="1">
         <v>450</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="1">
         <v>500</v>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       <c r="C54" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="4">
         <v>0.1</v>
       </c>
       <c r="E54" t="s">
@@ -1357,240 +1357,240 @@
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C55" s="7"/>
-      <c r="D55" s="7" t="s">
+      <c r="C55" s="3"/>
+      <c r="D55" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D56" s="25">
+      <c r="D56" s="12">
         <f>D51+NPV(D54,E51:I51)</f>
         <v>318.62577692780496</v>
       </c>
-      <c r="E56" s="25">
+      <c r="E56" s="12">
         <f>1+D56/-(D51)</f>
         <v>1.3186257769278049</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D57" s="25">
+      <c r="D57" s="12">
         <f>D52+NPV(D54,E52:I52)</f>
         <v>348.09470292019273</v>
       </c>
-      <c r="E57" s="25">
+      <c r="E57" s="12">
         <f>1+D57/-(D52)</f>
         <v>1.3480947029201928</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="11"/>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="15"/>
+      <c r="R59" s="15"/>
+      <c r="S59" s="15"/>
+      <c r="T59" s="15"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="14"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="14"/>
+      <c r="P64" s="14"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="14"/>
+      <c r="P65" s="14"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="14"/>
+      <c r="P66" s="14"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="24"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="24"/>
-      <c r="L67" s="24"/>
-      <c r="M67" s="24"/>
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69" s="3">
         <v>0</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E69" s="3">
         <v>1</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F69" s="3">
         <v>2</v>
       </c>
-      <c r="G69" s="7">
+      <c r="G69" s="3">
         <v>3</v>
       </c>
-      <c r="H69" s="7">
+      <c r="H69" s="3">
         <v>4</v>
       </c>
-      <c r="I69" s="7">
+      <c r="I69" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="1">
         <v>-1000</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="1">
         <v>100</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="1">
         <v>250</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G70" s="1">
         <v>450</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H70" s="1">
         <v>500</v>
       </c>
-      <c r="I70" s="3">
+      <c r="I70" s="1">
         <v>550</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="1">
         <v>-1000</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="1">
         <v>200</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="1">
         <v>300</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G71" s="1">
         <v>400</v>
       </c>
-      <c r="H71" s="3">
+      <c r="H71" s="1">
         <v>450</v>
       </c>
-      <c r="I71" s="3">
+      <c r="I71" s="1">
         <v>500</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F73" s="9">
+      <c r="F73" s="4">
         <v>0.1</v>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
       <c r="C75" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D75" s="5">
         <f>D70+NPV(F73,E70:I70)</f>
         <v>318.62577692780496</v>
       </c>
@@ -1607,48 +1607,54 @@
       <c r="C76" t="s">
         <v>5</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D76" s="5">
         <f>D71+NPV(F73,E71:I71)</f>
         <v>348.09470292019273</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="10">
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="5">
         <f>D75/(1+F73)^5</f>
         <v>197.84153897076382</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="10">
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="5">
         <f>D76/(1+F73)^5</f>
         <v>216.13942348708957</v>
       </c>
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A62:P66"/>
-    <mergeCell ref="C59:T59"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C81:F81"/>
+    <mergeCell ref="A18:K22"/>
+    <mergeCell ref="A1:K4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B25:E25"/>
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="B41:E41"/>
@@ -1659,17 +1665,11 @@
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="B37:E37"/>
     <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="A1:K4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="A18:K22"/>
+    <mergeCell ref="A62:P66"/>
+    <mergeCell ref="C59:T59"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C81:F81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
